--- a/output/StructureDefinition-ncdth-coverage.xlsx
+++ b/output/StructureDefinition-ncdth-coverage.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD Thailand Coverage Profile</t>
+    <t>NCD TH Coverage Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ncdth-coverage.xlsx
+++ b/output/StructureDefinition-ncdth-coverage.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD TH Coverage Profile</t>
+    <t>Coverage (NCD TH)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile สำหรับ Coverage resource</t>
+    <t>ใช้บันทึกข้อมูลสิทธิ์การรักษา</t>
   </si>
   <si>
     <t>Purpose</t>
